--- a/Atomic-Bond/Datas/Stats/clustercenters.xlsx
+++ b/Atomic-Bond/Datas/Stats/clustercenters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 1)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>('N', 'H', 1)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>('N', 'C', 1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>('N', 'C', 1.5)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>('C', 'C', 1)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>('O', 'C', 2)</t>
+        </is>
+      </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('C', 'C', 1.5)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>('C', 'H', 1)</t>
         </is>
@@ -472,71 +467,102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2.518877778016037</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6.82622130515048</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0.6451870290266791</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.23484487501716</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>0.8412222718059239</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19</v>
+        <v>22.49581145797952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1.676938093793189</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5.32724779309823</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0.1134769202422831</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.44287028649071</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>0.8425236019659073</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
+        <v>35.21110511893915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1.557480316606237</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5.594956954474435</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1.146350966697383</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.486844406207115</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>0.8506833965749533</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
+        <v>26.33339642591525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.249403445456151</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.645019676230068</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.234565811722715</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.521031805855769</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5096021373587996</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.289559229481082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.392703966780076</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.06642425211736</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3872971235308214</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.58207237817344</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.467232202201939</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.30914597317962</v>
       </c>
     </row>
   </sheetData>
